--- a/Localizable.xlsx
+++ b/Localizable.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2260" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="800" yWindow="2160" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Localizable" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Localizable!$A$3:$C$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Localizable!$A$3:$C$132</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="387">
   <si>
     <t>en*</t>
   </si>
@@ -35,9 +35,6 @@
     <t>fr</t>
   </si>
   <si>
-    <t>Publicité</t>
-  </si>
-  <si>
     <t>Altitude</t>
   </si>
   <si>
@@ -284,12 +281,6 @@
     <t>∆v prograde</t>
   </si>
   <si>
-    <t>Supprimer la publicité</t>
-  </si>
-  <si>
-    <t>Supprimer la publicité (%@)</t>
-  </si>
-  <si>
     <t>Restaurer les achats In-App</t>
   </si>
   <si>
@@ -407,15 +398,6 @@
     <t>Oui</t>
   </si>
   <si>
-    <t>Je n'aime pas les publicités non plus, mais envoyer une application sur l'AppStore n'est pas gratuit !\nSi vous aimez cette application, vous pouvez les retirer pour toujours avec un achat In-App ; ça m'aide !</t>
-  </si>
-  <si>
-    <t>Ads</t>
-  </si>
-  <si>
-    <t>I don't like ads either, but sending an app on the AppStore is not free !\nIf you like this app, you can remove them forever with an In-App Purchase; it helps !</t>
-  </si>
-  <si>
     <t>Apoapsis</t>
   </si>
   <si>
@@ -650,12 +632,6 @@
     <t>Prograde ∆v</t>
   </si>
   <si>
-    <t>Remove ads</t>
-  </si>
-  <si>
-    <t>Remove ads (%@)</t>
-  </si>
-  <si>
     <t>Restore In-App purchases</t>
   </si>
   <si>
@@ -779,12 +755,6 @@
     <t>[end]</t>
   </si>
   <si>
-    <t>ADS</t>
-  </si>
-  <si>
-    <t>ADS_FOOTER</t>
-  </si>
-  <si>
     <t>ALTITUDE</t>
   </si>
   <si>
@@ -1031,15 +1001,6 @@
     <t>PROGRADE_DV</t>
   </si>
   <si>
-    <t>REMOVE_ADS</t>
-  </si>
-  <si>
-    <t>REMOVE_ADS_WITH_PRICE</t>
-  </si>
-  <si>
-    <t>RESTORE_ADS</t>
-  </si>
-  <si>
     <t>RETROGRADE_DV</t>
   </si>
   <si>
@@ -1155,6 +1116,78 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>COMPLETE_VERSION</t>
+  </si>
+  <si>
+    <t>COMPLETE_VERSION_FOOTER</t>
+  </si>
+  <si>
+    <t>Complete version</t>
+  </si>
+  <si>
+    <t>RESTORE_COMPLETE_VERSION</t>
+  </si>
+  <si>
+    <t>BUY_COMPLETE_VERSION_WITH_PRICE</t>
+  </si>
+  <si>
+    <t>BUY_COMPLETE_VERSION</t>
+  </si>
+  <si>
+    <t>Buy complete version</t>
+  </si>
+  <si>
+    <t>Acheter la version complête</t>
+  </si>
+  <si>
+    <t>Buy complete version (%@)</t>
+  </si>
+  <si>
+    <t>If you like this app, or that you use it a lot, you can buy the complete version for barely nothing!\nWith this complete version, you won't have any restriction on calculations, and you will be able to use alternate systems</t>
+  </si>
+  <si>
+    <t>Si vous aimez l'application, ou que vous l'utilisez beaucoup, vous pouvez acheter la version complete pour une bouchée de pain !\nAvec la version complete, il n'y a pas de restrictuion sur le quantité de calculs, et vous pourrez choisir des systèmes planétaires alternatifs</t>
+  </si>
+  <si>
+    <t>COMPLETE_VERSION_FEATURE</t>
+  </si>
+  <si>
+    <t>Version complète</t>
+  </si>
+  <si>
+    <t>Fonctionnalité non disponible</t>
+  </si>
+  <si>
+    <t>Unavailable feature</t>
+  </si>
+  <si>
+    <t>CANCEL</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Annuler</t>
+  </si>
+  <si>
+    <t>BUY_IN_SETTINGS</t>
+  </si>
+  <si>
+    <t>Voir dans les réglages</t>
+  </si>
+  <si>
+    <t>Buy in settings</t>
+  </si>
+  <si>
+    <t>ONLY_X_CALCULATION</t>
+  </si>
+  <si>
+    <t>Désolé, seulement 20 calculs par jour. Revenez demain !</t>
+  </si>
+  <si>
+    <t>Sorry, only 20 calculations a day. Come back tomorrow !</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1229,6 +1262,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1508,22 +1547,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C129"/>
+  <dimension ref="A2:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="52.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>248</v>
+      <c r="A2" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1533,1394 +1572,1438 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>250</v>
+      <c r="A3" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B28" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B29" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B37" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B39" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B40" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B41" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B42" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B43" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>276</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>277</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>278</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>279</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>280</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>281</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>282</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>283</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>284</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>285</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>286</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>287</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>288</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>289</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>290</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>291</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>292</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>293</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>294</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>295</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>296</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>297</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>298</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>299</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>300</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>301</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>302</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>303</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>304</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>305</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>306</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>307</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>308</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>309</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>310</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>311</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>312</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>313</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>314</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>315</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>316</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>317</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>318</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>319</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>320</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>321</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>322</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>323</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>324</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>325</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>326</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>327</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>328</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="B99" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="B100" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="B101" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="B102" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="B103" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="B104" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="B105" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A106" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="B106" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="B107" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="B108" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="B109" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A110" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="B110" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="B111" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="B112" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="B113" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="B114" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="B115" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="B116" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="B117" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="B118" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="B119" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="B120" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="B121" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="B122" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="B123" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="B124" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="B125" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="B126" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="B127" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="B128" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A129" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="B129" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="B130" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="B131" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>363</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>364</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>365</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>366</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>367</v>
-      </c>
-      <c r="B120" s="3" t="s">
+      <c r="B132" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>368</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>369</v>
-      </c>
-      <c r="B122" s="3" t="s">
+      <c r="C132" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>370</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>371</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>372</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>373</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>374</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>375</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/Localizable.xlsx
+++ b/Localizable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="800" yWindow="2160" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="20000" windowHeight="19320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Localizable" sheetId="1" r:id="rId1"/>
@@ -155,9 +155,6 @@
     <t>L'achat a échoué</t>
   </si>
   <si>
-    <t>Essayez à nouveau si vous voulez supprimer les apps. Vous êtes génial !</t>
-  </si>
-  <si>
     <t>Achats in-App désactivés</t>
   </si>
   <si>
@@ -509,9 +506,6 @@
     <t>Purchase has failed</t>
   </si>
   <si>
-    <t>Please try again if you want to remove ads. You're awesome !</t>
-  </si>
-  <si>
     <t>In-App purchases not enabled</t>
   </si>
   <si>
@@ -1188,6 +1182,12 @@
   </si>
   <si>
     <t>Sorry, only 20 calculations a day. Come back tomorrow !</t>
+  </si>
+  <si>
+    <t>Please try again if you want to buy the complete app. You're awesome !</t>
+  </si>
+  <si>
+    <t>Essayez à nouveau si vous voulez acheter l'app complête. Vous êtes génial !</t>
   </si>
 </sst>
 </file>
@@ -1549,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1562,7 +1562,7 @@
   <sheetData>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="3" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -1595,10 +1595,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1606,10 +1606,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1617,10 +1617,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1628,10 +1628,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1650,43 +1650,43 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>383</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -1694,21 +1694,21 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
@@ -1716,10 +1716,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
@@ -1738,10 +1738,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1749,43 +1749,43 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>365</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>14</v>
@@ -1793,10 +1793,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>15</v>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>16</v>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>17</v>
@@ -1826,10 +1826,10 @@
     </row>
     <row r="26" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>18</v>
@@ -1837,10 +1837,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>19</v>
@@ -1848,10 +1848,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>20</v>
@@ -1859,10 +1859,10 @@
     </row>
     <row r="29" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>21</v>
@@ -1870,10 +1870,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>22</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>23</v>
@@ -1892,10 +1892,10 @@
     </row>
     <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>24</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>25</v>
@@ -1914,10 +1914,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>26</v>
@@ -1925,10 +1925,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>27</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>28</v>
@@ -1947,10 +1947,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>29</v>
@@ -1958,10 +1958,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>30</v>
@@ -1969,10 +1969,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>31</v>
@@ -1980,10 +1980,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>32</v>
@@ -1991,10 +1991,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>33</v>
@@ -2002,10 +2002,10 @@
     </row>
     <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>34</v>
@@ -2013,10 +2013,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>35</v>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>36</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>37</v>
@@ -2046,10 +2046,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>38</v>
@@ -2057,10 +2057,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>39</v>
@@ -2068,10 +2068,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>40</v>
@@ -2079,10 +2079,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>41</v>
@@ -2090,538 +2090,538 @@
     </row>
     <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>160</v>
+        <v>385</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>42</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="C77" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>26</v>
@@ -2629,381 +2629,381 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/Localizable.xlsx
+++ b/Localizable.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Xcode/KSPCompanion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Developer/Xcode/KSPCompanion/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="20000" windowHeight="19320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Localizable" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1142,9 +1145,6 @@
     <t>If you like this app, or that you use it a lot, you can buy the complete version for barely nothing!\nWith this complete version, you won't have any restriction on calculations, and you will be able to use alternate systems</t>
   </si>
   <si>
-    <t>Si vous aimez l'application, ou que vous l'utilisez beaucoup, vous pouvez acheter la version complete pour une bouchée de pain !\nAvec la version complete, il n'y a pas de restrictuion sur le quantité de calculs, et vous pourrez choisir des systèmes planétaires alternatifs</t>
-  </si>
-  <si>
     <t>COMPLETE_VERSION_FEATURE</t>
   </si>
   <si>
@@ -1188,6 +1188,9 @@
   </si>
   <si>
     <t>Essayez à nouveau si vous voulez acheter l'app complête. Vous êtes génial !</t>
+  </si>
+  <si>
+    <t>Si vous aimez l'application, ou que vous l'utilisez beaucoup, vous pouvez acheter la version complete pour une bouchée de pain !\nAvec la version complete, il n'y a pas de restriction sur la quantité de calculs, et vous pourrez choisir des systèmes planétaires alternatifs</t>
   </si>
 </sst>
 </file>
@@ -1549,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1672,13 +1675,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1694,13 +1697,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>377</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1755,18 +1758,18 @@
         <v>363</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="80" x14ac:dyDescent="0.2">
@@ -1777,7 +1780,7 @@
         <v>370</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2093,10 +2096,10 @@
         <v>280</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -2387,13 +2390,13 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
